--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.43264233333333</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H2">
-        <v>259.297927</v>
+        <v>279.732567</v>
       </c>
       <c r="I2">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J2">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>64.154275</v>
+        <v>0.09397566666666667</v>
       </c>
       <c r="N2">
-        <v>192.462825</v>
+        <v>0.281927</v>
       </c>
       <c r="O2">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="P2">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="Q2">
-        <v>5545.023505229308</v>
+        <v>8.762684824067668</v>
       </c>
       <c r="R2">
-        <v>49905.21154706378</v>
+        <v>78.864163416609</v>
       </c>
       <c r="S2">
-        <v>0.4845231545651992</v>
+        <v>0.0007117851673273085</v>
       </c>
       <c r="T2">
-        <v>0.4845231545651992</v>
+        <v>0.0007117851673273083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.43264233333333</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H3">
-        <v>259.297927</v>
+        <v>279.732567</v>
       </c>
       <c r="I3">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J3">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.904109666666667</v>
+        <v>64.154275</v>
       </c>
       <c r="N3">
-        <v>5.712329</v>
+        <v>192.462825</v>
       </c>
       <c r="O3">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845974</v>
       </c>
       <c r="P3">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845973</v>
       </c>
       <c r="Q3">
-        <v>164.5772297824426</v>
+        <v>5982.013343257975</v>
       </c>
       <c r="R3">
-        <v>1481.195068041983</v>
+        <v>53838.12008932178</v>
       </c>
       <c r="S3">
-        <v>0.01438072867835266</v>
+        <v>0.4859136730320668</v>
       </c>
       <c r="T3">
-        <v>0.01438072867835266</v>
+        <v>0.4859136730320667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.60427266666667</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H4">
-        <v>94.81281800000001</v>
+        <v>279.732567</v>
       </c>
       <c r="I4">
-        <v>0.1824252265675234</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J4">
-        <v>0.1824252265675234</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.154275</v>
+        <v>2.132189</v>
       </c>
       <c r="N4">
-        <v>192.462825</v>
+        <v>6.396567</v>
       </c>
       <c r="O4">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="P4">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="Q4">
-        <v>2027.549199832317</v>
+        <v>198.814234099721</v>
       </c>
       <c r="R4">
-        <v>18247.94279849085</v>
+        <v>1789.328106897489</v>
       </c>
       <c r="S4">
-        <v>0.177166883677308</v>
+        <v>0.01614950505774665</v>
       </c>
       <c r="T4">
-        <v>0.177166883677308</v>
+        <v>0.01614950505774665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.60427266666667</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H5">
-        <v>94.81281800000001</v>
+        <v>279.732567</v>
       </c>
       <c r="I5">
-        <v>0.1824252265675234</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J5">
-        <v>0.1824252265675234</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.904109666666667</v>
+        <v>0.07524</v>
       </c>
       <c r="N5">
-        <v>5.712329</v>
+        <v>0.22572</v>
       </c>
       <c r="O5">
-        <v>0.02882464771542451</v>
+        <v>0.001132183138858776</v>
       </c>
       <c r="P5">
-        <v>0.02882464771542451</v>
+        <v>0.001132183138858776</v>
       </c>
       <c r="Q5">
-        <v>60.17800109256913</v>
+        <v>7.01569278036</v>
       </c>
       <c r="R5">
-        <v>541.6020098331221</v>
+        <v>63.14123502324001</v>
       </c>
       <c r="S5">
-        <v>0.005258342890215362</v>
+        <v>0.0005698785429175641</v>
       </c>
       <c r="T5">
-        <v>0.005258342890215361</v>
+        <v>0.000569878542917564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.182874</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H6">
-        <v>165.548622</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I6">
-        <v>0.3185249158641322</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="J6">
-        <v>0.3185249158641322</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>64.154275</v>
+        <v>0.09397566666666667</v>
       </c>
       <c r="N6">
-        <v>192.462825</v>
+        <v>0.281927</v>
       </c>
       <c r="O6">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="P6">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="Q6">
-        <v>3540.21727388635</v>
+        <v>2.970032593365111</v>
       </c>
       <c r="R6">
-        <v>31861.95546497715</v>
+        <v>26.730293340286</v>
       </c>
       <c r="S6">
-        <v>0.3093435473757634</v>
+        <v>0.0002412531306192305</v>
       </c>
       <c r="T6">
-        <v>0.3093435473757634</v>
+        <v>0.0002412531306192305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.182874</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H7">
-        <v>165.548622</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I7">
-        <v>0.3185249158641322</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="J7">
-        <v>0.3185249158641322</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.904109666666667</v>
+        <v>64.154275</v>
       </c>
       <c r="N7">
-        <v>5.712329</v>
+        <v>192.462825</v>
       </c>
       <c r="O7">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845974</v>
       </c>
       <c r="P7">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845973</v>
       </c>
       <c r="Q7">
-        <v>105.0742438178487</v>
+        <v>2027.549199832317</v>
       </c>
       <c r="R7">
-        <v>945.668194360638</v>
+        <v>18247.94279849085</v>
       </c>
       <c r="S7">
-        <v>0.009181368488368842</v>
+        <v>0.1646960349986738</v>
       </c>
       <c r="T7">
-        <v>0.009181368488368842</v>
+        <v>0.1646960349986738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02528933333333333</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H8">
-        <v>0.07586799999999999</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I8">
-        <v>0.0001459743247925071</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="J8">
-        <v>0.0001459743247925071</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.154275</v>
+        <v>2.132189</v>
       </c>
       <c r="N8">
-        <v>192.462825</v>
+        <v>6.396567</v>
       </c>
       <c r="O8">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="P8">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="Q8">
-        <v>1.622418845233333</v>
+        <v>67.38628253286734</v>
       </c>
       <c r="R8">
-        <v>14.6017696071</v>
+        <v>606.476542795806</v>
       </c>
       <c r="S8">
-        <v>0.0001417666663048661</v>
+        <v>0.005473728355090713</v>
       </c>
       <c r="T8">
-        <v>0.0001417666663048661</v>
+        <v>0.005473728355090713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.60427266666667</v>
+      </c>
+      <c r="H9">
+        <v>94.81281800000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1706041716509459</v>
+      </c>
+      <c r="J9">
+        <v>0.1706041716509459</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07524</v>
+      </c>
+      <c r="N9">
+        <v>0.22572</v>
+      </c>
+      <c r="O9">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P9">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q9">
+        <v>2.37790547544</v>
+      </c>
+      <c r="R9">
+        <v>21.40114927896</v>
+      </c>
+      <c r="S9">
+        <v>0.0001931551665621693</v>
+      </c>
+      <c r="T9">
+        <v>0.0001931551665621693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.37827433333333</v>
+      </c>
+      <c r="H10">
+        <v>181.134823</v>
+      </c>
+      <c r="I10">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="J10">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.02528933333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.07586799999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.0001459743247925071</v>
-      </c>
-      <c r="J9">
-        <v>0.0001459743247925071</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.904109666666667</v>
-      </c>
-      <c r="N9">
-        <v>5.712329</v>
-      </c>
-      <c r="O9">
-        <v>0.02882464771542451</v>
-      </c>
-      <c r="P9">
-        <v>0.02882464771542451</v>
-      </c>
-      <c r="Q9">
-        <v>0.04815366406355556</v>
-      </c>
-      <c r="R9">
-        <v>0.433382976572</v>
-      </c>
-      <c r="S9">
-        <v>4.207658487640974E-06</v>
-      </c>
-      <c r="T9">
-        <v>4.207658487640974E-06</v>
+      <c r="M10">
+        <v>0.09397566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.281927</v>
+      </c>
+      <c r="O10">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="P10">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="Q10">
+        <v>5.674088582657888</v>
+      </c>
+      <c r="R10">
+        <v>51.06679724392099</v>
+      </c>
+      <c r="S10">
+        <v>0.0004609012160456005</v>
+      </c>
+      <c r="T10">
+        <v>0.0004609012160456004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60.37827433333333</v>
+      </c>
+      <c r="H11">
+        <v>181.134823</v>
+      </c>
+      <c r="I11">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="J11">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>64.154275</v>
+      </c>
+      <c r="N11">
+        <v>192.462825</v>
+      </c>
+      <c r="O11">
+        <v>0.9653693306845974</v>
+      </c>
+      <c r="P11">
+        <v>0.9653693306845973</v>
+      </c>
+      <c r="Q11">
+        <v>3873.524415606108</v>
+      </c>
+      <c r="R11">
+        <v>34861.71974045497</v>
+      </c>
+      <c r="S11">
+        <v>0.3146429752598069</v>
+      </c>
+      <c r="T11">
+        <v>0.3146429752598069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.37827433333333</v>
+      </c>
+      <c r="H12">
+        <v>181.134823</v>
+      </c>
+      <c r="I12">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="J12">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.132189</v>
+      </c>
+      <c r="N12">
+        <v>6.396567</v>
+      </c>
+      <c r="O12">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="P12">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="Q12">
+        <v>128.7378923725157</v>
+      </c>
+      <c r="R12">
+        <v>1158.641031352641</v>
+      </c>
+      <c r="S12">
+        <v>0.01045726556455096</v>
+      </c>
+      <c r="T12">
+        <v>0.01045726556455096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.37827433333333</v>
+      </c>
+      <c r="H13">
+        <v>181.134823</v>
+      </c>
+      <c r="I13">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="J13">
+        <v>0.3259301546659619</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.07524</v>
+      </c>
+      <c r="N13">
+        <v>0.22572</v>
+      </c>
+      <c r="O13">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P13">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q13">
+        <v>4.54286136084</v>
+      </c>
+      <c r="R13">
+        <v>40.88575224756</v>
+      </c>
+      <c r="S13">
+        <v>0.0003690126255584351</v>
+      </c>
+      <c r="T13">
+        <v>0.000369012625558435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.022384</v>
+      </c>
+      <c r="H14">
+        <v>0.067152</v>
+      </c>
+      <c r="I14">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="J14">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09397566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.281927</v>
+      </c>
+      <c r="O14">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="P14">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="Q14">
+        <v>0.002103551322666667</v>
+      </c>
+      <c r="R14">
+        <v>0.018931961904</v>
+      </c>
+      <c r="S14">
+        <v>1.708696204699091E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.708696204699091E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.022384</v>
+      </c>
+      <c r="H15">
+        <v>0.067152</v>
+      </c>
+      <c r="I15">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="J15">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>64.154275</v>
+      </c>
+      <c r="N15">
+        <v>192.462825</v>
+      </c>
+      <c r="O15">
+        <v>0.9653693306845974</v>
+      </c>
+      <c r="P15">
+        <v>0.9653693306845973</v>
+      </c>
+      <c r="Q15">
+        <v>1.4360292916</v>
+      </c>
+      <c r="R15">
+        <v>12.9242636244</v>
+      </c>
+      <c r="S15">
+        <v>0.0001166473940499368</v>
+      </c>
+      <c r="T15">
+        <v>0.0001166473940499368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.022384</v>
+      </c>
+      <c r="H16">
+        <v>0.067152</v>
+      </c>
+      <c r="I16">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="J16">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.132189</v>
+      </c>
+      <c r="N16">
+        <v>6.396567</v>
+      </c>
+      <c r="O16">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="P16">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="Q16">
+        <v>0.047726918576</v>
+      </c>
+      <c r="R16">
+        <v>0.429542267184</v>
+      </c>
+      <c r="S16">
+        <v>3.876815543031866E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.876815543031866E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.022384</v>
+      </c>
+      <c r="H17">
+        <v>0.067152</v>
+      </c>
+      <c r="I17">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="J17">
+        <v>0.0001208318830340463</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07524</v>
+      </c>
+      <c r="N17">
+        <v>0.22572</v>
+      </c>
+      <c r="O17">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P17">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q17">
+        <v>0.00168417216</v>
+      </c>
+      <c r="R17">
+        <v>0.01515754944</v>
+      </c>
+      <c r="S17">
+        <v>1.36803820607703E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.36803820607703E-07</v>
       </c>
     </row>
   </sheetData>
